--- a/Xports/UD_French-PUD/VERB-no-obl.xlsx
+++ b/Xports/UD_French-PUD/VERB-no-obl.xlsx
@@ -56613,7 +56613,7 @@
         <v>3904</v>
       </c>
       <c r="O947">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:15">
@@ -58775,7 +58775,7 @@
         <v>3905</v>
       </c>
       <c r="O993">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:15">
